--- a/db and notes/obj_skills.xlsx
+++ b/db and notes/obj_skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="obj_skills" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="119">
   <si>
     <t>id</t>
   </si>
@@ -367,16 +367,19 @@
     <t>SQL</t>
   </si>
   <si>
-    <t>1. Technologies</t>
-  </si>
-  <si>
-    <t>2. Languages</t>
-  </si>
-  <si>
     <t>3. Subject Areas</t>
   </si>
   <si>
     <t>4. Concepts</t>
+  </si>
+  <si>
+    <t>1. Languages</t>
+  </si>
+  <si>
+    <t>2. Technologies</t>
+  </si>
+  <si>
+    <t>Human-Computer Interaction</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -462,12 +465,69 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -479,6 +539,34 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -490,6 +578,34 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2076,464 +2192,808 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>114</v>
-      </c>
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="C1" s="2"/>
       <c r="D1" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2">
+        <v>104</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3">
+        <v>105</v>
+      </c>
+      <c r="H3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4">
+        <v>106</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>107</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>108</v>
+      </c>
+      <c r="H6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7">
+        <v>109</v>
+      </c>
+      <c r="H7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8">
+        <v>110</v>
+      </c>
+      <c r="H8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9">
+        <v>111</v>
+      </c>
+      <c r="H9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>113</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <v>72</v>
+      </c>
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+    <row r="22" spans="3:6">
+      <c r="C22">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>78</v>
+      </c>
+      <c r="F24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>80</v>
+      </c>
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>82</v>
+      </c>
+      <c r="F28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29">
+        <v>83</v>
+      </c>
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>85</v>
+      </c>
+      <c r="F31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32">
+        <v>86</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33">
+        <v>87</v>
+      </c>
+      <c r="F33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34">
+        <v>88</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35">
+        <v>89</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36">
+        <v>90</v>
+      </c>
+      <c r="F36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>91</v>
+      </c>
+      <c r="F37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>92</v>
+      </c>
+      <c r="F38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>93</v>
+      </c>
+      <c r="F39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40">
+        <v>94</v>
+      </c>
+      <c r="F40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>95</v>
+      </c>
+      <c r="F41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>96</v>
+      </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43">
+        <v>97</v>
+      </c>
+      <c r="F43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="E44">
+        <v>98</v>
+      </c>
+      <c r="F44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="C45">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E45">
+        <v>99</v>
+      </c>
+      <c r="F45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="C46">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="E47">
+        <v>101</v>
+      </c>
+      <c r="F47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="E48">
+        <v>102</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6">
+      <c r="E49">
+        <v>103</v>
+      </c>
+      <c r="F49" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="C47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="C48" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" t="s">
-        <v>112</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="H2:H9">
+    <sortCondition ref="H2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/db and notes/obj_skills.xlsx
+++ b/db and notes/obj_skills.xlsx
@@ -441,8 +441,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -527,7 +533,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -567,6 +573,9 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -606,6 +615,9 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2196,7 +2208,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
